--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="428">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-28T07:59:31+00:00</t>
+    <t>2022-10-10T09:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,10 +257,6 @@
   </si>
   <si>
     <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1934,16 +1930,16 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>76</v>
@@ -1951,7 +1947,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1962,28 +1958,28 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2033,13 +2029,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -2062,7 +2058,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2073,25 +2069,25 @@
         <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2142,19 +2138,19 @@
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -2171,7 +2167,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2182,28 +2178,28 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2253,19 +2249,19 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>76</v>
@@ -2282,7 +2278,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2293,7 +2289,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -2305,16 +2301,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2340,43 +2336,43 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
@@ -2393,18 +2389,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -2416,16 +2412,16 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2475,28 +2471,28 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>76</v>
@@ -2504,11 +2500,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2527,16 +2523,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2586,7 +2582,7 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -2607,7 +2603,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2615,7 +2611,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2638,13 +2634,13 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2683,17 +2679,17 @@
         <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2705,7 +2701,7 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
@@ -2722,10 +2718,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>76</v>
@@ -2747,13 +2743,13 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2804,7 +2800,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2813,10 +2809,10 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
@@ -2833,10 +2829,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>76</v>
@@ -2858,13 +2854,13 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2915,7 +2911,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2924,10 +2920,10 @@
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>76</v>
@@ -2944,11 +2940,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2961,25 +2957,25 @@
         <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>76</v>
@@ -3028,7 +3024,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -3040,7 +3036,7 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>76</v>
@@ -3049,7 +3045,7 @@
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
@@ -3057,11 +3053,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3077,22 +3073,22 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>76</v>
@@ -3141,7 +3137,7 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -3153,24 +3149,24 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3181,7 +3177,7 @@
         <v>74</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>76</v>
@@ -3193,13 +3189,13 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3250,28 +3246,28 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -3279,11 +3275,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3302,16 +3298,16 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3349,19 +3345,19 @@
         <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AB15" t="s" s="2">
+      <c r="AE15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>74</v>
@@ -3373,7 +3369,7 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>76</v>
@@ -3382,7 +3378,7 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -3390,7 +3386,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3401,31 +3397,31 @@
         <v>74</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3450,52 +3446,52 @@
         <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3503,7 +3499,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3514,31 +3510,31 @@
         <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3563,52 +3559,52 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3616,7 +3612,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3627,31 +3623,31 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3664,7 +3660,7 @@
         <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>76</v>
@@ -3676,50 +3672,50 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
@@ -3727,7 +3723,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3738,28 +3734,28 @@
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3773,64 +3769,64 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="T19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3838,7 +3834,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3849,25 +3845,25 @@
         <v>74</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3918,28 +3914,28 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3947,7 +3943,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3958,28 +3954,28 @@
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4029,28 +4025,28 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -4058,18 +4054,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>76</v>
@@ -4081,19 +4077,19 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -4142,7 +4138,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -4154,16 +4150,16 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4171,7 +4167,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4179,32 +4175,32 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="I23" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4229,92 +4225,92 @@
         <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="H24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4340,11 +4336,11 @@
         <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>76</v>
@@ -4362,7 +4358,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -4374,53 +4370,53 @@
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4447,91 +4443,91 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4580,36 +4576,36 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>275</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4620,7 +4616,7 @@
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>76</v>
@@ -4632,13 +4628,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4689,28 +4685,28 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4718,11 +4714,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4741,16 +4737,16 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4788,19 +4784,19 @@
         <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD28" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AB28" t="s" s="2">
+      <c r="AE28" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4812,7 +4808,7 @@
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
@@ -4821,7 +4817,7 @@
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4829,7 +4825,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4840,28 +4836,28 @@
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4911,19 +4907,19 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
@@ -4932,7 +4928,7 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4940,7 +4936,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4951,28 +4947,28 @@
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4998,43 +4994,43 @@
         <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>76</v>
@@ -5043,7 +5039,7 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -5051,7 +5047,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5062,28 +5058,28 @@
         <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5133,28 +5129,28 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5162,7 +5158,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5173,7 +5169,7 @@
         <v>74</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -5185,13 +5181,13 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5242,28 +5238,28 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5271,11 +5267,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5294,16 +5290,16 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5341,19 +5337,19 @@
         <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD33" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AB33" t="s" s="2">
+      <c r="AE33" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
@@ -5365,7 +5361,7 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
@@ -5374,7 +5370,7 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5382,7 +5378,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5393,31 +5389,31 @@
         <v>74</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5442,52 +5438,52 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="X34" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="X34" t="s" s="2">
+      <c r="Y34" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5495,7 +5491,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5506,31 +5502,31 @@
         <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5555,52 +5551,52 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="AL35" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5608,7 +5604,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5619,31 +5615,31 @@
         <v>74</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5656,7 +5652,7 @@
         <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>76</v>
@@ -5668,11 +5664,11 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5690,28 +5686,28 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -5719,7 +5715,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5730,28 +5726,28 @@
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5765,64 +5761,64 @@
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="T37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5830,7 +5826,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5841,25 +5837,25 @@
         <v>74</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5910,28 +5906,28 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5939,7 +5935,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5950,28 +5946,28 @@
         <v>74</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6021,28 +6017,28 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6050,7 +6046,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6061,28 +6057,28 @@
         <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6132,19 +6128,19 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
@@ -6153,7 +6149,7 @@
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6161,42 +6157,42 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>76</v>
@@ -6245,71 +6241,71 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>321</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6358,71 +6354,71 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6471,40 +6467,40 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6520,22 +6516,22 @@
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6584,7 +6580,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
@@ -6596,28 +6592,28 @@
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6633,22 +6629,22 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6697,7 +6693,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6709,24 +6705,24 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6749,19 +6745,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6810,7 +6806,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6822,16 +6818,16 @@
         <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6839,11 +6835,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6862,19 +6858,19 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -6923,7 +6919,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6935,16 +6931,16 @@
         <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6952,7 +6948,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6975,16 +6971,16 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7034,7 +7030,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -7046,7 +7042,7 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
@@ -7055,7 +7051,7 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7063,11 +7059,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7083,20 +7079,20 @@
         <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>76</v>
@@ -7145,7 +7141,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -7157,16 +7153,16 @@
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7174,7 +7170,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7185,7 +7181,7 @@
         <v>74</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>76</v>
@@ -7197,13 +7193,13 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7254,28 +7250,28 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7283,11 +7279,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7306,16 +7302,16 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7365,7 +7361,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -7377,7 +7373,7 @@
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
@@ -7386,7 +7382,7 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7394,11 +7390,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7411,25 +7407,25 @@
         <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="M52" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7478,7 +7474,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7490,7 +7486,7 @@
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
@@ -7499,7 +7495,7 @@
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7507,7 +7503,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7518,7 +7514,7 @@
         <v>74</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>76</v>
@@ -7530,19 +7526,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7591,19 +7587,19 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>76</v>
@@ -7612,7 +7608,7 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7620,7 +7616,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7628,28 +7624,28 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J54" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7700,19 +7696,19 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>76</v>
@@ -7721,7 +7717,7 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7729,18 +7725,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>76</v>
@@ -7752,17 +7748,17 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7811,28 +7807,28 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -7840,7 +7836,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7863,13 +7859,13 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7896,14 +7892,14 @@
         <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="X56" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="X56" t="s" s="2">
+      <c r="Y56" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>76</v>
       </c>
@@ -7920,7 +7916,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -7932,16 +7928,16 @@
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -7949,7 +7945,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7972,19 +7968,19 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>76</v>
@@ -8033,7 +8029,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -8045,16 +8041,16 @@
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T09:03:48+00:00</t>
+    <t>2022-11-09T12:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T12:26:10+00:00</t>
+    <t>2022-11-25T10:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T10:32:08+00:00</t>
+    <t>2022-12-08T09:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -643,7 +643,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://nhn.no/fhir/nilar/ValueSet/id-provider-vs</t>
+    <t>http://nhn.no/fhir/nilar/ValueSet/identifier-source-vs</t>
   </si>
   <si>
     <t>Identifier.system</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:32:03+00:00</t>
+    <t>2022-12-23T09:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:40:36+00:00</t>
+    <t>2022-12-23T09:52:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="432">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:52:16+00:00</t>
+    <t>2023-01-09T13:10:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -251,6 +251,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports</t>
@@ -1874,16 +1878,16 @@
         <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1948,13 +1952,13 @@
         <v>77</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>77</v>
@@ -1962,10 +1966,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1976,7 +1980,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>77</v>
@@ -1985,19 +1989,19 @@
         <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2047,13 +2051,13 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>77</v>
@@ -2076,10 +2080,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2090,7 +2094,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>77</v>
@@ -2099,16 +2103,16 @@
         <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2159,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
@@ -2188,10 +2192,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2202,28 +2206,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2273,19 +2277,19 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
@@ -2302,10 +2306,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2316,7 +2320,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -2328,16 +2332,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2363,13 +2367,13 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -2387,19 +2391,19 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
@@ -2416,21 +2420,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -2442,16 +2446,16 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2501,19 +2505,19 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>77</v>
@@ -2522,7 +2526,7 @@
         <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>77</v>
@@ -2530,14 +2534,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2556,16 +2560,16 @@
         <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2615,7 +2619,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2636,7 +2640,7 @@
         <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>77</v>
@@ -2644,10 +2648,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2670,13 +2674,13 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2715,17 +2719,17 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2737,7 +2741,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
@@ -2754,13 +2758,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2782,13 +2786,13 @@
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2839,7 +2843,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2848,10 +2852,10 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
@@ -2868,13 +2872,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
@@ -2896,13 +2900,13 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2953,7 +2957,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2962,10 +2966,10 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
@@ -2982,14 +2986,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3002,25 +3006,25 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -3069,7 +3073,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3081,7 +3085,7 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
@@ -3090,7 +3094,7 @@
         <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3098,14 +3102,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3121,22 +3125,22 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3185,7 +3189,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3200,24 +3204,24 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3228,7 +3232,7 @@
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3240,13 +3244,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3297,13 +3301,13 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
@@ -3318,7 +3322,7 @@
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3326,14 +3330,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3352,16 +3356,16 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3399,19 +3403,19 @@
         <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3423,7 +3427,7 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
@@ -3432,7 +3436,7 @@
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3440,10 +3444,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3454,31 +3458,31 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3503,13 +3507,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3527,28 +3531,28 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3556,10 +3560,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3570,7 +3574,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3579,22 +3583,22 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3619,13 +3623,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3643,28 +3647,28 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3672,10 +3676,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3686,31 +3690,31 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3723,7 +3727,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -3735,11 +3739,11 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3757,28 +3761,28 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3786,10 +3790,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3800,28 +3804,28 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3835,7 +3839,7 @@
         <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>77</v>
@@ -3871,28 +3875,28 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3900,10 +3904,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3914,7 +3918,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3923,16 +3927,16 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3983,28 +3987,28 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4012,10 +4016,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4026,7 +4030,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4035,19 +4039,19 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4097,28 +4101,28 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4126,21 +4130,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4152,19 +4156,19 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4213,7 +4217,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4225,16 +4229,16 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4242,10 +4246,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4253,32 +4257,32 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4303,13 +4307,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4327,71 +4331,71 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4417,11 +4421,11 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4439,7 +4443,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4451,38 +4455,38 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4491,16 +4495,16 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4527,11 +4531,11 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4549,72 +4553,72 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4663,39 +4667,39 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4706,7 +4710,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4718,13 +4722,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4775,13 +4779,13 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -4796,7 +4800,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4804,14 +4808,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4830,16 +4834,16 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4877,19 +4881,19 @@
         <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4901,7 +4905,7 @@
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
@@ -4910,7 +4914,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4918,10 +4922,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4932,7 +4936,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4941,19 +4945,19 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5003,19 +5007,19 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -5024,7 +5028,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5032,10 +5036,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5046,7 +5050,7 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5055,19 +5059,19 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5093,13 +5097,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5117,19 +5121,19 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5138,7 +5142,7 @@
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5146,10 +5150,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5160,28 +5164,28 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5231,19 +5235,19 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5252,7 +5256,7 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5260,10 +5264,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5274,7 +5278,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5286,13 +5290,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5343,13 +5347,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5364,7 +5368,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5372,14 +5376,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5398,16 +5402,16 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5445,19 +5449,19 @@
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5469,7 +5473,7 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5478,7 +5482,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5486,10 +5490,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5500,31 +5504,31 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5549,13 +5553,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5573,28 +5577,28 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5602,10 +5606,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5616,7 +5620,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5625,22 +5629,22 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5665,13 +5669,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5689,28 +5693,28 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5718,10 +5722,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5732,31 +5736,31 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5769,7 +5773,7 @@
         <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>77</v>
@@ -5781,11 +5785,11 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5803,28 +5807,28 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5832,10 +5836,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5846,28 +5850,28 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5881,7 +5885,7 @@
         <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>77</v>
@@ -5917,28 +5921,28 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5946,10 +5950,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5960,7 +5964,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5969,16 +5973,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6029,28 +6033,28 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6058,10 +6062,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6072,7 +6076,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6081,19 +6085,19 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6143,28 +6147,28 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6172,10 +6176,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6186,28 +6190,28 @@
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6257,19 +6261,19 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6278,7 +6282,7 @@
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6286,21 +6290,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6309,22 +6313,22 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6373,50 +6377,50 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6425,22 +6429,22 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6489,74 +6493,74 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6605,43 +6609,43 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6657,22 +6661,22 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6721,7 +6725,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6733,31 +6737,31 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6773,22 +6777,22 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6837,7 +6841,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6849,27 +6853,27 @@
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6892,19 +6896,19 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6953,7 +6957,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6965,16 +6969,16 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -6982,14 +6986,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7008,19 +7012,19 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7069,7 +7073,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7081,16 +7085,16 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7098,10 +7102,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7124,16 +7128,16 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7183,7 +7187,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7195,7 +7199,7 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7204,7 +7208,7 @@
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7212,14 +7216,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7235,20 +7239,20 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7297,7 +7301,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7309,16 +7313,16 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7326,10 +7330,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7340,7 +7344,7 @@
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7352,13 +7356,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7409,13 +7413,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7430,7 +7434,7 @@
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7438,14 +7442,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7464,16 +7468,16 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7523,7 +7527,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7535,7 +7539,7 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7544,7 +7548,7 @@
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7552,14 +7556,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7572,25 +7576,25 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7639,7 +7643,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7651,7 +7655,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7660,7 +7664,7 @@
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7668,10 +7672,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7682,7 +7686,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7694,19 +7698,19 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7755,19 +7759,19 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7776,7 +7780,7 @@
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7784,10 +7788,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7795,10 +7799,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7807,16 +7811,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7867,19 +7871,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7888,7 +7892,7 @@
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -7896,21 +7900,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -7922,17 +7926,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7981,28 +7985,28 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8010,10 +8014,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8036,13 +8040,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8069,13 +8073,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8093,7 +8097,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8105,16 +8109,16 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8122,10 +8126,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8148,19 +8152,19 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8209,7 +8213,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8221,16 +8225,16 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="463">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T13:10:52+00:00</t>
+    <t>2023-02-27T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -482,6 +482,131 @@
     <t>This extension is intended to add an element similar to 'Note' in resources that do not have Note.</t>
   </si>
   <si>
+    <t>DiagnosticReport.extension:comment.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension:comment.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension:comment.url</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://nhn.no/fhir/nilar/StructureDefinition/nilar-comment</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension:comment.value[x]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension:comment.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://nhn.no/fhir/nilar/ValueSet/report-comment-vs</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension:reportdate</t>
+  </si>
+  <si>
+    <t>reportdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-report-date}
+</t>
+  </si>
+  <si>
+    <t>Report Date</t>
+  </si>
+  <si>
+    <t>Time this report was first published (first version).</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension:approvaldate</t>
+  </si>
+  <si>
+    <t>approvaldate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-approval-date}
+</t>
+  </si>
+  <si>
+    <t>Approval Date</t>
+  </si>
+  <si>
+    <t>Time diagnostic report was approved.</t>
+  </si>
+  <si>
     <t>DiagnosticReport.modifierExtension</t>
   </si>
   <si>
@@ -543,22 +668,6 @@
     <t>DiagnosticReport.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.identifier.extension</t>
   </si>
   <si>
@@ -568,12 +677,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>DiagnosticReport.identifier.use</t>
   </si>
   <si>
@@ -589,9 +692,6 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
@@ -605,10 +705,6 @@
   </si>
   <si>
     <t>DiagnosticReport.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Description of identifier</t>
@@ -1678,7 +1774,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN57"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1687,9 +1783,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.4765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.69921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.4765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1697,7 +1793,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2659,7 +2755,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>76</v>
@@ -2989,43 +3085,39 @@
         <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3073,28 +3165,28 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3105,18 +3197,18 @@
         <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -3125,23 +3217,19 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3177,19 +3265,19 @@
         <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -3201,27 +3289,27 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3229,7 +3317,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>86</v>
@@ -3244,22 +3332,24 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>77</v>
@@ -3301,10 +3391,10 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>86</v>
@@ -3322,7 +3412,7 @@
         <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3330,21 +3420,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3356,17 +3446,15 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3403,31 +3491,29 @@
         <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
@@ -3436,7 +3522,7 @@
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3444,12 +3530,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3464,26 +3552,22 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3507,13 +3591,11 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3531,7 +3613,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3549,10 +3631,10 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3560,46 +3642,44 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3623,13 +3703,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3647,28 +3727,28 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3676,12 +3756,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3693,29 +3775,25 @@
         <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3727,7 +3805,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -3739,11 +3817,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3761,28 +3841,28 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3790,44 +3870,46 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I19" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3839,7 +3921,7 @@
         <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>77</v>
@@ -3875,28 +3957,28 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3904,21 +3986,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3930,16 +4012,20 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3987,39 +4073,39 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4039,20 +4125,18 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4101,7 +4185,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4113,16 +4197,16 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4130,21 +4214,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4156,20 +4240,18 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4205,19 +4287,19 @@
         <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -4229,16 +4311,16 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4246,10 +4328,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4257,7 +4339,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>86</v>
@@ -4275,14 +4357,16 @@
         <v>106</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4307,13 +4391,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4331,10 +4415,10 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>86</v>
@@ -4346,38 +4430,38 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>248</v>
+        <v>129</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>77</v>
@@ -4386,18 +4470,20 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4421,11 +4507,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4443,13 +4531,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4461,35 +4549,35 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>77</v>
@@ -4498,16 +4586,20 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4519,7 +4611,7 @@
         <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>77</v>
@@ -4531,11 +4623,11 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4553,10 +4645,10 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>86</v>
@@ -4568,28 +4660,28 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4608,18 +4700,18 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>271</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4631,7 +4723,7 @@
         <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>77</v>
@@ -4667,7 +4759,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4682,24 +4774,24 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4719,16 +4811,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4779,7 +4871,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4791,16 +4883,16 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4808,21 +4900,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4831,19 +4923,19 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4881,40 +4973,40 @@
         <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4922,14 +5014,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4945,21 +5037,23 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5007,28 +5101,28 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>129</v>
+        <v>272</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5036,10 +5130,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5047,7 +5141,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -5056,24 +5150,24 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5097,13 +5191,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5121,10 +5215,10 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>86</v>
@@ -5136,32 +5230,32 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>86</v>
@@ -5176,16 +5270,16 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5211,13 +5305,11 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5235,13 +5327,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5253,29 +5345,29 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>86</v>
@@ -5287,16 +5379,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>169</v>
+        <v>293</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5323,13 +5415,11 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5347,10 +5437,10 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>86</v>
@@ -5359,61 +5449,61 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>172</v>
+        <v>298</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>150</v>
+        <v>301</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5449,51 +5539,51 @@
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5510,26 +5600,22 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5553,13 +5639,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5577,7 +5663,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5589,16 +5675,16 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5606,21 +5692,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5629,23 +5715,21 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O35" t="s" s="2">
         <v>193</v>
       </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5669,52 +5753,52 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5722,10 +5806,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5739,7 +5823,7 @@
         <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>77</v>
@@ -5748,20 +5832,18 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5773,7 +5855,7 @@
         <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>77</v>
@@ -5785,11 +5867,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5807,7 +5891,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>206</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5816,7 +5900,7 @@
         <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>98</v>
@@ -5825,10 +5909,10 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5836,10 +5920,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5853,7 +5937,7 @@
         <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>77</v>
@@ -5862,16 +5946,16 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>211</v>
+        <v>320</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>212</v>
+        <v>321</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5885,7 +5969,7 @@
         <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>77</v>
@@ -5897,13 +5981,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5921,7 +6005,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>214</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5939,10 +6023,10 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5950,10 +6034,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5967,7 +6051,7 @@
         <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>77</v>
@@ -5976,15 +6060,17 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>219</v>
+        <v>326</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6033,7 +6119,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>221</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6051,10 +6137,10 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6062,10 +6148,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6085,20 +6171,18 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6147,7 +6231,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6159,16 +6243,16 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6176,42 +6260,42 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>209</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>311</v>
+        <v>210</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>312</v>
+        <v>193</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6249,31 +6333,31 @@
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>313</v>
+        <v>159</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6282,7 +6366,7 @@
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6290,14 +6374,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6310,25 +6394,25 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>316</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
+        <v>212</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>318</v>
+        <v>213</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>320</v>
+        <v>215</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6353,13 +6437,13 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
@@ -6377,7 +6461,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>314</v>
+        <v>218</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6392,28 +6476,28 @@
         <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>323</v>
+        <v>219</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6432,19 +6516,19 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>327</v>
+        <v>169</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>330</v>
+        <v>223</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>331</v>
+        <v>224</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6469,13 +6553,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6493,7 +6577,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>228</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6508,28 +6592,28 @@
         <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>229</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>334</v>
+        <v>219</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6548,19 +6632,19 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>338</v>
+        <v>100</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>340</v>
+        <v>232</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>342</v>
+        <v>234</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6573,7 +6657,7 @@
         <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>77</v>
@@ -6585,13 +6669,11 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6609,7 +6691,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6627,35 +6709,35 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>343</v>
+        <v>238</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>344</v>
+        <v>239</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>77</v>
@@ -6664,20 +6746,18 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>348</v>
+        <v>151</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6689,7 +6769,7 @@
         <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>77</v>
@@ -6725,13 +6805,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6740,35 +6820,35 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>354</v>
+        <v>246</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6780,20 +6860,16 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>249</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6841,13 +6917,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>252</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -6856,24 +6932,24 @@
         <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>363</v>
+        <v>253</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>355</v>
+        <v>254</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6884,7 +6960,7 @@
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6893,23 +6969,21 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>365</v>
+        <v>256</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
+        <v>257</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6957,13 +7031,13 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>260</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
@@ -6975,10 +7049,10 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>370</v>
+        <v>261</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -6986,46 +7060,44 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>151</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7073,13 +7145,13 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
@@ -7091,10 +7163,10 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7102,21 +7174,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7125,21 +7197,23 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7187,13 +7261,13 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
@@ -7202,35 +7276,35 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7242,17 +7316,19 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7301,13 +7377,13 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7316,28 +7392,28 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7347,25 +7423,29 @@
         <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>168</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>169</v>
+        <v>370</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7413,7 +7493,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>171</v>
+        <v>367</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7425,31 +7505,31 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>172</v>
+        <v>375</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>150</v>
+        <v>378</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7465,21 +7545,23 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>174</v>
+        <v>380</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>175</v>
+        <v>381</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7527,7 +7609,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>177</v>
+        <v>377</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7539,31 +7621,31 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>172</v>
+        <v>386</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7576,25 +7658,25 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>131</v>
+        <v>390</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>153</v>
+        <v>393</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>154</v>
+        <v>383</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7643,7 +7725,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7655,27 +7737,27 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>129</v>
+        <v>386</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7686,7 +7768,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7698,19 +7780,19 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>168</v>
+        <v>396</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7759,13 +7841,13 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
@@ -7777,10 +7859,10 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>405</v>
+        <v>308</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7788,21 +7870,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7811,19 +7893,23 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7871,13 +7957,13 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
@@ -7889,7 +7975,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>410</v>
@@ -7907,14 +7993,14 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -7926,7 +8012,7 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>168</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>413</v>
@@ -7934,10 +8020,10 @@
       <c r="M55" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>415</v>
       </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7991,7 +8077,7 @@
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
@@ -8003,10 +8089,10 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8014,14 +8100,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8037,19 +8123,21 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>189</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8073,13 +8161,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8097,7 +8185,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8115,10 +8203,10 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8126,10 +8214,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8140,7 +8228,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8152,20 +8240,16 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>426</v>
+        <v>151</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>427</v>
+        <v>152</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8213,35 +8297,835 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH57" t="s" s="2">
+      <c r="B58" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G58" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AK60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN57">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8251,7 +9135,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:47:29+00:00</t>
+    <t>2023-06-07T09:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -605,6 +605,22 @@
   </si>
   <si>
     <t>Time diagnostic report was approved.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension:restriction</t>
+  </si>
+  <si>
+    <t>restriction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-restriction}
+</t>
+  </si>
+  <si>
+    <t>Restriction</t>
+  </si>
+  <si>
+    <t>Used on DiagnisticReport and Observation to convey a restriction. Not applicable for restrictions that apply to the requesting person, such restrictions results in the datat not being provided at all.</t>
   </si>
   <si>
     <t>DiagnosticReport.modifierExtension</t>
@@ -1774,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3873,11 +3889,13 @@
         <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3890,26 +3908,22 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="O19" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3957,7 +3971,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3966,7 +3980,7 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>137</v>
@@ -3978,7 +3992,7 @@
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3986,14 +4000,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4006,25 +4020,25 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4073,7 +4087,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4085,38 +4099,38 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4125,19 +4139,23 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4185,13 +4203,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -4200,35 +4218,35 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4240,17 +4258,15 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4287,31 +4303,31 @@
         <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
@@ -4328,46 +4344,44 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4391,52 +4405,52 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4444,10 +4458,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4464,25 +4478,25 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4507,13 +4521,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4531,7 +4545,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4549,10 +4563,10 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4560,10 +4574,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4577,7 +4591,7 @@
         <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>77</v>
@@ -4586,19 +4600,19 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4611,7 +4625,7 @@
         <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>77</v>
@@ -4623,11 +4637,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4645,7 +4661,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4663,10 +4679,10 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4674,10 +4690,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4700,18 +4716,20 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4723,7 +4741,7 @@
         <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>77</v>
@@ -4735,13 +4753,11 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4759,7 +4775,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4777,10 +4793,10 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4788,10 +4804,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4805,7 +4821,7 @@
         <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>77</v>
@@ -4814,15 +4830,17 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4835,7 +4853,7 @@
         <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>77</v>
@@ -4871,7 +4889,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4889,10 +4907,10 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4900,10 +4918,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4926,17 +4944,15 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4985,7 +5001,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -5003,10 +5019,10 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5014,14 +5030,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5037,23 +5053,21 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5101,13 +5115,13 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
@@ -5116,13 +5130,13 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5130,18 +5144,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -5150,23 +5164,25 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5191,13 +5207,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -5215,13 +5231,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -5230,28 +5246,28 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5261,27 +5277,27 @@
         <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5307,9 +5323,11 @@
       <c r="X31" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y31" s="2"/>
+      <c r="Y31" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5327,13 +5345,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5342,28 +5360,28 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5373,7 +5391,7 @@
         <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>77</v>
@@ -5385,12 +5403,14 @@
         <v>169</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5419,7 +5439,7 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5437,13 +5457,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5452,38 +5472,38 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>77</v>
@@ -5492,18 +5512,16 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>302</v>
+        <v>169</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5527,13 +5545,11 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5551,10 +5567,10 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>86</v>
@@ -5566,28 +5582,28 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5597,25 +5613,27 @@
         <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>151</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>152</v>
+        <v>308</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>153</v>
+        <v>309</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5663,7 +5681,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>154</v>
+        <v>305</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5675,38 +5693,38 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>155</v>
+        <v>313</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5718,17 +5736,15 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5765,31 +5781,31 @@
         <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5806,21 +5822,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5829,19 +5845,19 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>315</v>
+        <v>198</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5879,31 +5895,31 @@
         <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>159</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5912,7 +5928,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5920,10 +5936,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5946,16 +5962,16 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5981,13 +5997,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>323</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6005,7 +6021,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6014,7 +6030,7 @@
         <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>98</v>
@@ -6034,10 +6050,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6051,7 +6067,7 @@
         <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>77</v>
@@ -6060,16 +6076,16 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6095,13 +6111,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6140,7 +6156,7 @@
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>330</v>
+        <v>129</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6148,10 +6164,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6165,24 +6181,26 @@
         <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>152</v>
+        <v>331</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6231,7 +6249,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>154</v>
+        <v>334</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6243,7 +6261,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6252,7 +6270,7 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>155</v>
+        <v>335</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6260,21 +6278,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6286,17 +6304,15 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6333,31 +6349,31 @@
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6374,46 +6390,44 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6437,52 +6451,52 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6490,10 +6504,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6510,25 +6524,25 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6553,13 +6567,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6577,7 +6591,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6595,10 +6609,10 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6606,10 +6620,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6623,7 +6637,7 @@
         <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>77</v>
@@ -6632,19 +6646,19 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6657,7 +6671,7 @@
         <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>77</v>
@@ -6669,11 +6683,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>336</v>
+        <v>232</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6691,7 +6707,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6709,10 +6725,10 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6720,10 +6736,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6746,18 +6762,20 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6769,7 +6787,7 @@
         <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>77</v>
@@ -6781,13 +6799,11 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6805,7 +6821,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6823,10 +6839,10 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6834,10 +6850,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6851,7 +6867,7 @@
         <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>77</v>
@@ -6860,15 +6876,17 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6881,7 +6899,7 @@
         <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>77</v>
@@ -6917,7 +6935,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6935,10 +6953,10 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6946,10 +6964,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6972,17 +6990,15 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7031,7 +7047,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -7049,10 +7065,10 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7060,10 +7076,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7077,7 +7093,7 @@
         <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>77</v>
@@ -7086,16 +7102,16 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>341</v>
+        <v>262</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>342</v>
+        <v>263</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7145,7 +7161,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>344</v>
+        <v>265</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7163,10 +7179,10 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>129</v>
+        <v>267</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7181,7 +7197,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7191,7 +7207,7 @@
         <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>77</v>
@@ -7200,20 +7216,18 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7261,7 +7275,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7276,28 +7290,28 @@
         <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7316,19 +7330,19 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7377,7 +7391,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7392,28 +7406,28 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7423,7 +7437,7 @@
         <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>77</v>
@@ -7432,19 +7446,19 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7493,7 +7507,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7508,38 +7522,38 @@
         <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>77</v>
@@ -7548,19 +7562,19 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7609,13 +7623,13 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
@@ -7624,28 +7638,28 @@
         <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7664,19 +7678,19 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7725,7 +7739,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7740,28 +7754,28 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7777,22 +7791,22 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="N53" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="O53" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7841,7 +7855,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7856,28 +7870,28 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>308</v>
+        <v>391</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7896,19 +7910,19 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7957,7 +7971,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7975,10 +7989,10 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>410</v>
+        <v>313</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -7986,14 +8000,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8012,18 +8026,20 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8071,7 +8087,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8089,10 +8105,10 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8100,14 +8116,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8123,21 +8139,21 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>422</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8185,7 +8201,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8203,10 +8219,10 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8214,21 +8230,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8237,19 +8253,21 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>151</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>152</v>
+        <v>425</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>153</v>
+        <v>426</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8297,28 +8315,28 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>154</v>
+        <v>422</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>155</v>
+        <v>415</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8326,21 +8344,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8352,17 +8370,15 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8411,19 +8427,19 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8440,14 +8456,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>427</v>
+        <v>195</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8460,26 +8476,24 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>214</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>429</v>
+        <v>215</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8527,7 +8541,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>430</v>
+        <v>159</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8548,7 +8562,7 @@
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8563,38 +8577,38 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>434</v>
+        <v>198</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>435</v>
+        <v>199</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8643,19 +8657,19 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -8664,7 +8678,7 @@
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>436</v>
+        <v>129</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8672,10 +8686,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8683,7 +8697,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>86</v>
@@ -8695,19 +8709,23 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8755,10 +8773,10 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>86</v>
@@ -8791,11 +8809,11 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>86</v>
@@ -8807,10 +8825,10 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>151</v>
+        <v>443</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>444</v>
@@ -8819,9 +8837,7 @@
         <v>445</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>446</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8872,7 +8888,7 @@
         <v>442</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>86</v>
@@ -8887,10 +8903,10 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>447</v>
+        <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8898,21 +8914,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8924,16 +8940,18 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -8957,13 +8975,13 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>454</v>
+        <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -8981,13 +8999,13 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
@@ -8999,10 +9017,10 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9010,10 +9028,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9036,20 +9054,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>457</v>
+        <v>169</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9073,13 +9087,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>457</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>77</v>
+        <v>459</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9097,7 +9111,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9115,17 +9129,133 @@
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="L65" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN64">
+  <autoFilter ref="A1:AN65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9135,7 +9265,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="465">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:17:56+00:00</t>
+    <t>2024-07-02T13:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -597,22 +597,6 @@
   </si>
   <si>
     <t>Time diagnostic report was approved.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.extension:restriction</t>
-  </si>
-  <si>
-    <t>restriction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-restriction}
-</t>
-  </si>
-  <si>
-    <t>Restriction</t>
-  </si>
-  <si>
-    <t>Used on DiagnisticReport and Observation to convey a restriction. Not applicable for restrictions that apply to the requesting person, such restrictions results in the datat not being provided at all.</t>
   </si>
   <si>
     <t>DiagnosticReport.extension:infitem</t>
@@ -1806,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN65"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3905,13 +3889,11 @@
         <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3924,22 +3906,26 @@
         <v>19</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>19</v>
       </c>
@@ -3987,7 +3973,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3996,7 +3982,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>139</v>
@@ -4008,7 +3994,7 @@
         <v>19</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>19</v>
@@ -4016,14 +4002,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4036,25 +4022,25 @@
         <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J20" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -4103,7 +4089,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4115,38 +4101,38 @@
         <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>19</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
@@ -4155,23 +4141,19 @@
         <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>19</v>
       </c>
@@ -4219,50 +4201,50 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>19</v>
@@ -4274,15 +4256,17 @@
         <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -4319,31 +4303,31 @@
         <v>19</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>19</v>
@@ -4360,44 +4344,46 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>19</v>
       </c>
@@ -4421,52 +4407,52 @@
         <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>19</v>
@@ -4474,10 +4460,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4494,25 +4480,25 @@
         <v>19</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4537,13 +4523,13 @@
         <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>19</v>
@@ -4561,7 +4547,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4579,10 +4565,10 @@
         <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>19</v>
@@ -4590,10 +4576,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4607,7 +4593,7 @@
         <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>19</v>
@@ -4616,19 +4602,19 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4641,7 +4627,7 @@
         <v>19</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>19</v>
@@ -4653,13 +4639,11 @@
         <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>19</v>
@@ -4677,7 +4661,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4695,10 +4679,10 @@
         <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>19</v>
@@ -4706,10 +4690,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4732,20 +4716,18 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>19</v>
       </c>
@@ -4757,7 +4739,7 @@
         <v>19</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>19</v>
@@ -4769,11 +4751,13 @@
         <v>19</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>19</v>
@@ -4791,7 +4775,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4809,10 +4793,10 @@
         <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>19</v>
@@ -4820,10 +4804,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4837,7 +4821,7 @@
         <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>19</v>
@@ -4846,17 +4830,15 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -4869,7 +4851,7 @@
         <v>19</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>19</v>
@@ -4905,7 +4887,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4923,10 +4905,10 @@
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>19</v>
@@ -4934,10 +4916,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4960,15 +4942,17 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -5017,7 +5001,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5035,10 +5019,10 @@
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>19</v>
@@ -5046,14 +5030,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5069,21 +5053,23 @@
         <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
       </c>
@@ -5131,13 +5117,13 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>19</v>
@@ -5146,13 +5132,13 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>19</v>
+        <v>272</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>19</v>
@@ -5160,18 +5146,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
@@ -5180,25 +5166,23 @@
         <v>19</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -5223,13 +5207,13 @@
         <v>19</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>19</v>
@@ -5247,13 +5231,13 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>19</v>
@@ -5262,28 +5246,28 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>19</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5293,27 +5277,27 @@
         <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>19</v>
       </c>
@@ -5339,35 +5323,33 @@
       <c r="X31" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>19</v>
@@ -5376,28 +5358,28 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5407,7 +5389,7 @@
         <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>19</v>
@@ -5419,14 +5401,12 @@
         <v>173</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -5455,7 +5435,7 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>19</v>
@@ -5473,13 +5453,13 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>19</v>
@@ -5488,38 +5468,38 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>19</v>
+        <v>298</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>19</v>
@@ -5528,16 +5508,18 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
       </c>
@@ -5561,32 +5543,34 @@
         <v>19</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AA33" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>88</v>
@@ -5598,28 +5582,28 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5629,27 +5613,25 @@
         <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>309</v>
+        <v>148</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>149</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
+        <v>150</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>312</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>19</v>
       </c>
@@ -5697,7 +5679,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>307</v>
+        <v>151</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5709,38 +5691,38 @@
         <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>313</v>
+        <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>314</v>
+        <v>19</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>315</v>
+        <v>152</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>316</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
@@ -5752,15 +5734,17 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5797,31 +5781,31 @@
         <v>19</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>19</v>
@@ -5838,21 +5822,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>19</v>
@@ -5861,19 +5845,19 @@
         <v>19</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5911,31 +5895,31 @@
         <v>19</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>156</v>
+        <v>318</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>19</v>
@@ -5944,7 +5928,7 @@
         <v>19</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>19</v>
@@ -5952,10 +5936,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5978,16 +5962,16 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6013,13 +5997,13 @@
         <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>19</v>
+        <v>325</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -6037,7 +6021,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6046,7 +6030,7 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>100</v>
@@ -6066,10 +6050,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6083,7 +6067,7 @@
         <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>19</v>
@@ -6092,16 +6076,16 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6127,13 +6111,13 @@
         <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>330</v>
+        <v>19</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>19</v>
@@ -6172,7 +6156,7 @@
         <v>19</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>19</v>
@@ -6180,10 +6164,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6197,26 +6181,24 @@
         <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>333</v>
+        <v>149</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -6265,7 +6247,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>336</v>
+        <v>151</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6277,7 +6259,7 @@
         <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
@@ -6286,7 +6268,7 @@
         <v>19</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>337</v>
+        <v>152</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>19</v>
@@ -6294,21 +6276,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
@@ -6320,15 +6302,17 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -6365,31 +6349,31 @@
         <v>19</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>19</v>
@@ -6406,44 +6390,46 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>19</v>
       </c>
@@ -6467,52 +6453,52 @@
         <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>19</v>
@@ -6520,10 +6506,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6540,25 +6526,25 @@
         <v>19</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6583,13 +6569,13 @@
         <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>19</v>
@@ -6607,7 +6593,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6625,10 +6611,10 @@
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>19</v>
@@ -6636,10 +6622,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6653,7 +6639,7 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>19</v>
@@ -6662,19 +6648,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6687,7 +6673,7 @@
         <v>19</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>19</v>
@@ -6699,13 +6685,11 @@
         <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>19</v>
@@ -6723,7 +6707,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6741,10 +6725,10 @@
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>19</v>
@@ -6752,10 +6736,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6778,20 +6762,18 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>19</v>
       </c>
@@ -6803,7 +6785,7 @@
         <v>19</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>19</v>
@@ -6815,11 +6797,13 @@
         <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>19</v>
@@ -6837,7 +6821,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6855,10 +6839,10 @@
         <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>19</v>
@@ -6866,10 +6850,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6883,7 +6867,7 @@
         <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>19</v>
@@ -6892,17 +6876,15 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -6915,7 +6897,7 @@
         <v>19</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>19</v>
@@ -6951,7 +6933,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6969,10 +6951,10 @@
         <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>19</v>
@@ -6980,10 +6962,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7006,15 +6988,17 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7063,7 +7047,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7081,10 +7065,10 @@
         <v>19</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>19</v>
@@ -7092,10 +7076,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7109,7 +7093,7 @@
         <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>19</v>
@@ -7118,16 +7102,16 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>264</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7177,7 +7161,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>267</v>
+        <v>346</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7195,10 +7179,10 @@
         <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>19</v>
@@ -7213,7 +7197,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>19</v>
+        <v>348</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7223,7 +7207,7 @@
         <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>19</v>
@@ -7232,18 +7216,20 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>148</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
       </c>
@@ -7291,7 +7277,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7306,28 +7292,28 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>19</v>
+        <v>354</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>19</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7346,19 +7332,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -7407,7 +7393,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7422,28 +7408,28 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7453,7 +7439,7 @@
         <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>19</v>
@@ -7462,19 +7448,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -7523,7 +7509,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7538,38 +7524,38 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>370</v>
+        <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>19</v>
@@ -7578,19 +7564,19 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7639,13 +7625,13 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>19</v>
@@ -7654,28 +7640,28 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>19</v>
+        <v>386</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7694,19 +7680,19 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -7755,7 +7741,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7770,28 +7756,28 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>396</v>
+        <v>19</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7807,22 +7793,22 @@
         <v>19</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -7871,7 +7857,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7886,28 +7872,28 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>393</v>
+        <v>310</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>394</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>19</v>
+        <v>405</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7926,19 +7912,19 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -7987,7 +7973,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8005,10 +7991,10 @@
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>315</v>
+        <v>412</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>19</v>
@@ -8016,14 +8002,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>410</v>
+        <v>19</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8042,20 +8028,18 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>19</v>
       </c>
@@ -8103,7 +8087,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8121,10 +8105,10 @@
         <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>416</v>
+        <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>19</v>
@@ -8132,14 +8116,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>19</v>
+        <v>420</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8155,21 +8139,21 @@
         <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
       </c>
@@ -8217,7 +8201,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8235,10 +8219,10 @@
         <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>19</v>
+        <v>425</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>19</v>
@@ -8246,21 +8230,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>425</v>
+        <v>19</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
@@ -8269,21 +8253,19 @@
         <v>19</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>426</v>
+        <v>148</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>427</v>
+        <v>149</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>428</v>
+        <v>150</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>429</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>19</v>
       </c>
@@ -8331,28 +8313,28 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>424</v>
+        <v>151</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>430</v>
+        <v>19</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>417</v>
+        <v>152</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>19</v>
@@ -8360,21 +8342,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -8386,15 +8368,17 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8443,19 +8427,19 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>19</v>
@@ -8472,14 +8456,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>197</v>
+        <v>429</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8492,24 +8476,26 @@
         <v>19</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>216</v>
+        <v>430</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>217</v>
+        <v>431</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
       </c>
@@ -8557,7 +8543,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>156</v>
+        <v>432</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8578,7 +8564,7 @@
         <v>19</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>19</v>
@@ -8593,38 +8579,38 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>434</v>
+        <v>19</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N60" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="O60" t="s" s="2">
-        <v>201</v>
+        <v>437</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8673,19 +8659,19 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>19</v>
@@ -8694,7 +8680,7 @@
         <v>19</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>131</v>
+        <v>438</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>19</v>
@@ -8702,10 +8688,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8713,7 +8699,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
@@ -8725,23 +8711,19 @@
         <v>19</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>148</v>
+        <v>440</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O61" t="s" s="2">
         <v>442</v>
       </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>19</v>
       </c>
@@ -8789,10 +8771,10 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>88</v>
@@ -8825,11 +8807,11 @@
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>19</v>
+        <v>445</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
@@ -8841,10 +8823,10 @@
         <v>19</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>445</v>
+        <v>148</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>446</v>
@@ -8853,7 +8835,9 @@
         <v>447</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>19</v>
       </c>
@@ -8904,7 +8888,7 @@
         <v>444</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>88</v>
@@ -8919,10 +8903,10 @@
         <v>19</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>19</v>
@@ -8930,21 +8914,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>450</v>
+        <v>19</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>19</v>
@@ -8956,18 +8940,16 @@
         <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>453</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>19</v>
       </c>
@@ -8991,13 +8973,13 @@
         <v>19</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>19</v>
+        <v>454</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>19</v>
+        <v>455</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>19</v>
+        <v>456</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>19</v>
@@ -9015,13 +8997,13 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>19</v>
@@ -9033,10 +9015,10 @@
         <v>19</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>19</v>
@@ -9044,10 +9026,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9070,16 +9052,20 @@
         <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>173</v>
+        <v>459</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>19</v>
       </c>
@@ -9103,13 +9089,13 @@
         <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>459</v>
+        <v>19</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>460</v>
+        <v>19</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>461</v>
+        <v>19</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
@@ -9127,7 +9113,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9145,133 +9131,17 @@
         <v>19</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AN65" t="s" s="2">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN65">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9281,7 +9151,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.1</t>
+    <t>1.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T13:23:40+00:00</t>
+    <t>2025-03-20T10:06:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-diagnostic-report.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.2</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-20T10:06:13+00:00</t>
+    <t>2025-09-10T06:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -368,7 +368,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -733,7 +733,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -821,7 +821,7 @@
     <t>DiagnosticReport.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1031,7 +1031,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1107,7 +1107,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1244,7 +1244,7 @@
 Reported by</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -1263,7 +1263,7 @@
     <t>DiagnosticReport.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1289,7 +1289,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1314,7 +1314,7 @@
     <t>DiagnosticReport.imagingStudy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ImagingStudy)
+    <t xml:space="preserve">Reference(ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -1397,7 +1397,7 @@
     <t>DiagnosticReport.media.link</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Media)
+    <t xml:space="preserve">Reference(Media|4.0.1)
 </t>
   </si>
   <si>
@@ -1447,7 +1447,7 @@
     <t>Diagnosis codes provided as adjuncts to the report.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SPRT].source[classCode=OBS, moodCode=EVN, code=LOINC:54531-9].value (type=CD)</t>
@@ -1799,17 +1799,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.69921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.4765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.32421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.41796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="53.34375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.53125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1818,26 +1818,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.76171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.8046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="147.17578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="104.53515625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
